--- a/datasets/Helsinki_alueittain_2015.xlsx
+++ b/datasets/Helsinki_alueittain_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikkatei\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\NP77I9VF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinht\Desktop\checkyourhelsinki\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="675" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="3072" yWindow="672" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Taulukko" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="mediaanitulo_1" localSheetId="0">Taulukko!$A$189</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2477,6 +2477,7 @@
     <cellStyle name="Aksentti4 2" xfId="25"/>
     <cellStyle name="Aksentti5 2" xfId="26"/>
     <cellStyle name="Aksentti6 2" xfId="27"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
     <cellStyle name="Erotin 2" xfId="52"/>
     <cellStyle name="Huomautus 2" xfId="28"/>
     <cellStyle name="Huono 2" xfId="29"/>
@@ -2484,7 +2485,6 @@
     <cellStyle name="Laskenta 2" xfId="31"/>
     <cellStyle name="Linkitetty solu 2" xfId="32"/>
     <cellStyle name="Neutraali 2" xfId="33"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Normaali 2" xfId="1"/>
     <cellStyle name="Normaali 2 2" xfId="50"/>
     <cellStyle name="Normaali 3" xfId="2"/>
@@ -2496,12 +2496,12 @@
     <cellStyle name="Normaali 6 2" xfId="54"/>
     <cellStyle name="Normaali 7" xfId="49"/>
     <cellStyle name="Normaali 8" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Otsikko 1 2" xfId="35"/>
     <cellStyle name="Otsikko 2 2" xfId="36"/>
     <cellStyle name="Otsikko 3 2" xfId="37"/>
     <cellStyle name="Otsikko 4 2" xfId="38"/>
     <cellStyle name="Otsikko 5" xfId="34"/>
-    <cellStyle name="Pilkku" xfId="45" builtinId="3"/>
     <cellStyle name="Selittävä teksti 2" xfId="39"/>
     <cellStyle name="Summa 2" xfId="40"/>
     <cellStyle name="Syöttö 2" xfId="41"/>
@@ -2523,7 +2523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2815,24 +2815,24 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="123" width="13.85546875" customWidth="1"/>
-    <col min="124" max="124" width="13.85546875" style="6" customWidth="1"/>
-    <col min="125" max="131" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="123" width="13.88671875" customWidth="1"/>
+    <col min="124" max="124" width="13.88671875" style="6" customWidth="1"/>
+    <col min="125" max="131" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="EA2" s="8"/>
     </row>
-    <row r="3" spans="1:139" s="61" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="61" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>72</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="EF3" s="101"/>
       <c r="EG3" s="101"/>
     </row>
-    <row r="4" spans="1:139" s="81" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="81" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="90">
         <v>42005</v>
@@ -3656,7 +3656,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>73</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>7961</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>74</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>76</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>77</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>78</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>80</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>81</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>82</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>83</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>84</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>85</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>86</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>87</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>88</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>89</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>90</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>91</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>92</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>93</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>94</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>95</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>96</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>97</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>98</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="31" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>99</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>100</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>101</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>102</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>103</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>104</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>105</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="38" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>106</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>107</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="40" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>108</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>109</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="42" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>110</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="43" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>111</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>112</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="45" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>113</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="46" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>114</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>115</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:139" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>63</v>
       </c>
@@ -21653,7 +21653,7 @@
       <c r="DU48" s="25"/>
       <c r="DV48" s="25"/>
     </row>
-    <row r="49" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>196</v>
       </c>
@@ -21664,7 +21664,7 @@
       <c r="DU49" s="1"/>
       <c r="DV49" s="1"/>
     </row>
-    <row r="50" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>63</v>
       </c>
@@ -21675,947 +21675,947 @@
       <c r="DU50" s="1"/>
       <c r="DV50" s="1"/>
     </row>
-    <row r="51" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="100" t="s">
         <v>116</v>
       </c>
       <c r="DU51" s="1"/>
       <c r="DV51" s="1"/>
     </row>
-    <row r="52" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
       <c r="DU52" s="1"/>
       <c r="DV52" s="1"/>
     </row>
-    <row r="53" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="DU53" s="1"/>
       <c r="DV53" s="1"/>
     </row>
-    <row r="54" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>201</v>
       </c>
       <c r="DU54" s="1"/>
       <c r="DV54" s="1"/>
     </row>
-    <row r="55" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>202</v>
       </c>
       <c r="DU55" s="1"/>
       <c r="DV55" s="1"/>
     </row>
-    <row r="56" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="DU56" s="1"/>
       <c r="DV56" s="1"/>
     </row>
-    <row r="57" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>203</v>
       </c>
       <c r="DU57" s="1"/>
       <c r="DV57" s="1"/>
     </row>
-    <row r="58" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>197</v>
       </c>
       <c r="DU58" s="1"/>
       <c r="DV58" s="1"/>
     </row>
-    <row r="59" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>204</v>
       </c>
       <c r="DU59" s="1"/>
       <c r="DV59" s="1"/>
     </row>
-    <row r="60" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>198</v>
       </c>
       <c r="DU60" s="1"/>
       <c r="DV60" s="1"/>
     </row>
-    <row r="61" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="DU61" s="1"/>
       <c r="DV61" s="1"/>
     </row>
-    <row r="62" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>199</v>
       </c>
       <c r="DU62" s="1"/>
       <c r="DV62" s="1"/>
     </row>
-    <row r="63" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>205</v>
       </c>
       <c r="DU63" s="1"/>
       <c r="DV63" s="1"/>
     </row>
-    <row r="64" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>206</v>
       </c>
       <c r="DU64" s="1"/>
       <c r="DV64" s="1"/>
     </row>
-    <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>118</v>
       </c>
@@ -22636,139 +22636,139 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="9.140625" style="63"/>
-    <col min="257" max="257" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="9.140625" style="63"/>
-    <col min="513" max="513" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="9.140625" style="63"/>
-    <col min="769" max="769" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="9.140625" style="63"/>
-    <col min="1025" max="1025" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="9.140625" style="63"/>
-    <col min="1281" max="1281" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="9.140625" style="63"/>
-    <col min="1537" max="1537" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="9.140625" style="63"/>
-    <col min="1793" max="1793" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="9.140625" style="63"/>
-    <col min="2049" max="2049" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="9.140625" style="63"/>
-    <col min="2305" max="2305" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="9.140625" style="63"/>
-    <col min="2561" max="2561" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="9.140625" style="63"/>
-    <col min="2817" max="2817" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="9.140625" style="63"/>
-    <col min="3073" max="3073" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="9.140625" style="63"/>
-    <col min="3329" max="3329" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="9.140625" style="63"/>
-    <col min="3585" max="3585" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="9.140625" style="63"/>
-    <col min="3841" max="3841" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="9.140625" style="63"/>
-    <col min="4097" max="4097" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="9.140625" style="63"/>
-    <col min="4353" max="4353" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="9.140625" style="63"/>
-    <col min="4609" max="4609" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="9.140625" style="63"/>
-    <col min="4865" max="4865" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="9.140625" style="63"/>
-    <col min="5121" max="5121" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="9.140625" style="63"/>
-    <col min="5377" max="5377" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="9.140625" style="63"/>
-    <col min="5633" max="5633" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="9.140625" style="63"/>
-    <col min="5889" max="5889" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="9.140625" style="63"/>
-    <col min="6145" max="6145" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="9.140625" style="63"/>
-    <col min="6401" max="6401" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="9.140625" style="63"/>
-    <col min="6657" max="6657" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="9.140625" style="63"/>
-    <col min="6913" max="6913" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="9.140625" style="63"/>
-    <col min="7169" max="7169" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="9.140625" style="63"/>
-    <col min="7425" max="7425" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="9.140625" style="63"/>
-    <col min="7681" max="7681" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="9.140625" style="63"/>
-    <col min="7937" max="7937" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="9.140625" style="63"/>
-    <col min="8193" max="8193" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="9.140625" style="63"/>
-    <col min="8449" max="8449" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="9.140625" style="63"/>
-    <col min="8705" max="8705" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="9.140625" style="63"/>
-    <col min="8961" max="8961" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="9.140625" style="63"/>
-    <col min="9217" max="9217" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="9.140625" style="63"/>
-    <col min="9473" max="9473" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="9.140625" style="63"/>
-    <col min="9729" max="9729" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="9.140625" style="63"/>
-    <col min="9985" max="9985" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="9.140625" style="63"/>
-    <col min="10241" max="10241" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="9.140625" style="63"/>
-    <col min="10497" max="10497" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="9.140625" style="63"/>
-    <col min="10753" max="10753" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="9.140625" style="63"/>
-    <col min="11009" max="11009" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="9.140625" style="63"/>
-    <col min="11265" max="11265" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="9.140625" style="63"/>
-    <col min="11521" max="11521" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="9.140625" style="63"/>
-    <col min="11777" max="11777" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="9.140625" style="63"/>
-    <col min="12033" max="12033" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="9.140625" style="63"/>
-    <col min="12289" max="12289" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="9.140625" style="63"/>
-    <col min="12545" max="12545" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="9.140625" style="63"/>
-    <col min="12801" max="12801" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="9.140625" style="63"/>
-    <col min="13057" max="13057" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="9.140625" style="63"/>
-    <col min="13313" max="13313" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="9.140625" style="63"/>
-    <col min="13569" max="13569" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="9.140625" style="63"/>
-    <col min="13825" max="13825" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="9.140625" style="63"/>
-    <col min="14081" max="14081" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="9.140625" style="63"/>
-    <col min="14337" max="14337" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="9.140625" style="63"/>
-    <col min="14593" max="14593" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="9.140625" style="63"/>
-    <col min="14849" max="14849" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="9.140625" style="63"/>
-    <col min="15105" max="15105" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="9.140625" style="63"/>
-    <col min="15361" max="15361" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="9.140625" style="63"/>
-    <col min="15617" max="15617" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="9.140625" style="63"/>
-    <col min="15873" max="15873" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="9.140625" style="63"/>
-    <col min="16129" max="16129" width="46.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="9.109375" style="63"/>
+    <col min="257" max="257" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="9.109375" style="63"/>
+    <col min="513" max="513" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="9.109375" style="63"/>
+    <col min="769" max="769" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="9.109375" style="63"/>
+    <col min="1025" max="1025" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="9.109375" style="63"/>
+    <col min="1281" max="1281" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="9.109375" style="63"/>
+    <col min="1537" max="1537" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="9.109375" style="63"/>
+    <col min="1793" max="1793" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="9.109375" style="63"/>
+    <col min="2049" max="2049" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="9.109375" style="63"/>
+    <col min="2305" max="2305" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="9.109375" style="63"/>
+    <col min="2561" max="2561" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="9.109375" style="63"/>
+    <col min="2817" max="2817" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="9.109375" style="63"/>
+    <col min="3073" max="3073" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="9.109375" style="63"/>
+    <col min="3329" max="3329" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="9.109375" style="63"/>
+    <col min="3585" max="3585" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="9.109375" style="63"/>
+    <col min="3841" max="3841" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="9.109375" style="63"/>
+    <col min="4097" max="4097" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="9.109375" style="63"/>
+    <col min="4353" max="4353" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="9.109375" style="63"/>
+    <col min="4609" max="4609" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="9.109375" style="63"/>
+    <col min="4865" max="4865" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="9.109375" style="63"/>
+    <col min="5121" max="5121" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="9.109375" style="63"/>
+    <col min="5377" max="5377" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="9.109375" style="63"/>
+    <col min="5633" max="5633" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="9.109375" style="63"/>
+    <col min="5889" max="5889" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="9.109375" style="63"/>
+    <col min="6145" max="6145" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="9.109375" style="63"/>
+    <col min="6401" max="6401" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="9.109375" style="63"/>
+    <col min="6657" max="6657" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="9.109375" style="63"/>
+    <col min="6913" max="6913" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="9.109375" style="63"/>
+    <col min="7169" max="7169" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="9.109375" style="63"/>
+    <col min="7425" max="7425" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="9.109375" style="63"/>
+    <col min="7681" max="7681" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="9.109375" style="63"/>
+    <col min="7937" max="7937" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="9.109375" style="63"/>
+    <col min="8193" max="8193" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="9.109375" style="63"/>
+    <col min="8449" max="8449" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="9.109375" style="63"/>
+    <col min="8705" max="8705" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="9.109375" style="63"/>
+    <col min="8961" max="8961" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="9.109375" style="63"/>
+    <col min="9217" max="9217" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="9.109375" style="63"/>
+    <col min="9473" max="9473" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="9.109375" style="63"/>
+    <col min="9729" max="9729" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="9.109375" style="63"/>
+    <col min="9985" max="9985" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="9.109375" style="63"/>
+    <col min="10241" max="10241" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="9.109375" style="63"/>
+    <col min="10497" max="10497" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="9.109375" style="63"/>
+    <col min="10753" max="10753" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="9.109375" style="63"/>
+    <col min="11009" max="11009" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="9.109375" style="63"/>
+    <col min="11265" max="11265" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="9.109375" style="63"/>
+    <col min="11521" max="11521" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="9.109375" style="63"/>
+    <col min="11777" max="11777" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="9.109375" style="63"/>
+    <col min="12033" max="12033" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="9.109375" style="63"/>
+    <col min="12289" max="12289" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="9.109375" style="63"/>
+    <col min="12545" max="12545" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="9.109375" style="63"/>
+    <col min="12801" max="12801" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="9.109375" style="63"/>
+    <col min="13057" max="13057" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="9.109375" style="63"/>
+    <col min="13313" max="13313" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="9.109375" style="63"/>
+    <col min="13569" max="13569" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="9.109375" style="63"/>
+    <col min="13825" max="13825" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="9.109375" style="63"/>
+    <col min="14081" max="14081" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="9.109375" style="63"/>
+    <col min="14337" max="14337" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="9.109375" style="63"/>
+    <col min="14593" max="14593" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="9.109375" style="63"/>
+    <col min="14849" max="14849" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="9.109375" style="63"/>
+    <col min="15105" max="15105" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="9.109375" style="63"/>
+    <col min="15361" max="15361" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="9.109375" style="63"/>
+    <col min="15617" max="15617" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="9.109375" style="63"/>
+    <col min="15873" max="15873" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="9.109375" style="63"/>
+    <col min="16129" max="16129" width="46.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="9.109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>476</v>
       </c>
@@ -22808,7 +22808,7 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>72</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -22971,7 +22971,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>373</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>683487</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>374</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>121444</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>375</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>376</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>24426</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>377</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>44625</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>378</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>14401</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>379</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>25429</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>380</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>114160</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>381</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>17607</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>382</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>18467</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>383</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>27283</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>384</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>17905</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>385</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>32899</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>386</v>
       </c>
@@ -24721,7 +24721,7 @@
         <v>101883</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>387</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>36632</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>388</v>
       </c>
@@ -24971,7 +24971,7 @@
         <v>10985</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>389</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>390</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>13005</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -25346,7 +25346,7 @@
         <v>26185</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>391</v>
       </c>
@@ -25471,7 +25471,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>392</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>10625</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>393</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>6857</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>394</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>8899</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>395</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>14874</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>396</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>397</v>
       </c>
@@ -26221,7 +26221,7 @@
         <v>103637</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>398</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>26254</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>399</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>7977</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>400</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>31133</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>401</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>402</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>20175</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>403</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>404</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>61879</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>405</v>
       </c>
@@ -27221,7 +27221,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>406</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>30751</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>407</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>27324</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>408</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>116396</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>409</v>
       </c>
@@ -27721,7 +27721,7 @@
         <v>20562</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>410</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>14462</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>411</v>
       </c>
@@ -27971,7 +27971,7 @@
         <v>41406</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>412</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>39966</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>413</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>414</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -28292,7 +28292,7 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>196</v>
       </c>
@@ -28345,13 +28345,13 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="28.6640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>415</v>
       </c>
@@ -28364,7 +28364,7 @@
       <c r="F1" s="71"/>
       <c r="G1" s="71"/>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>72</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>374</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -28468,7 +28468,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -28546,7 +28546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -28572,7 +28572,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>380</v>
       </c>
@@ -28598,7 +28598,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -28650,7 +28650,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -28728,7 +28728,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>386</v>
       </c>
@@ -28754,7 +28754,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -28780,7 +28780,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -28858,7 +28858,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>391</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -28962,7 +28962,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -29014,7 +29014,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>397</v>
       </c>
@@ -29066,7 +29066,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -29118,7 +29118,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -29144,7 +29144,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -29170,7 +29170,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>404</v>
       </c>
@@ -29248,7 +29248,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>408</v>
       </c>
@@ -29352,7 +29352,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -29378,7 +29378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -29404,7 +29404,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -29430,7 +29430,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -29456,7 +29456,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>424</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>115</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -29526,16 +29526,16 @@
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="5" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="5"/>
-    <col min="20" max="20" width="6.140625" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="26.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="5" customWidth="1"/>
+    <col min="3" max="19" width="9.109375" style="5"/>
+    <col min="20" max="20" width="6.109375" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>438</v>
       </c>
@@ -29544,7 +29544,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>72</v>
       </c>
@@ -29567,7 +29567,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -29602,7 +29602,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>431</v>
       </c>
@@ -29636,7 +29636,7 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -29670,7 +29670,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -29704,7 +29704,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -29738,7 +29738,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -29772,7 +29772,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -29806,7 +29806,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>432</v>
       </c>
@@ -29840,7 +29840,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -29874,7 +29874,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -29908,7 +29908,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -29942,7 +29942,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -29976,7 +29976,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -30010,7 +30010,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>433</v>
       </c>
@@ -30044,7 +30044,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -30078,7 +30078,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -30112,7 +30112,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -30146,7 +30146,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -30180,7 +30180,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -30214,7 +30214,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>434</v>
       </c>
@@ -30248,7 +30248,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -30282,7 +30282,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -30316,7 +30316,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -30350,7 +30350,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -30384,7 +30384,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -30418,7 +30418,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>435</v>
       </c>
@@ -30452,7 +30452,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -30486,7 +30486,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -30520,7 +30520,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -30554,7 +30554,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -30588,7 +30588,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -30622,7 +30622,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -30656,7 +30656,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>436</v>
       </c>
@@ -30690,7 +30690,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -30724,7 +30724,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -30758,7 +30758,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -30792,7 +30792,7 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>437</v>
       </c>
@@ -30826,7 +30826,7 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -30860,7 +30860,7 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -30894,7 +30894,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -30928,7 +30928,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -30962,7 +30962,7 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>424</v>
       </c>
@@ -30996,7 +30996,7 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>115</v>
       </c>
@@ -31030,7 +31030,7 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -31048,13 +31048,13 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="28.33203125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>439</v>
       </c>
@@ -31063,7 +31063,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>72</v>
       </c>
@@ -31083,7 +31083,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -31104,7 +31104,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>374</v>
       </c>
@@ -31125,7 +31125,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -31146,7 +31146,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -31167,7 +31167,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -31188,7 +31188,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -31209,7 +31209,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>380</v>
       </c>
@@ -31251,7 +31251,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -31272,7 +31272,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -31293,7 +31293,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -31356,7 +31356,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>386</v>
       </c>
@@ -31377,7 +31377,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -31398,7 +31398,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -31419,7 +31419,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -31440,7 +31440,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -31461,7 +31461,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -31482,7 +31482,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>391</v>
       </c>
@@ -31503,7 +31503,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -31545,7 +31545,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -31566,7 +31566,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -31587,7 +31587,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -31608,7 +31608,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>397</v>
       </c>
@@ -31629,7 +31629,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -31650,7 +31650,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -31692,7 +31692,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -31734,7 +31734,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>404</v>
       </c>
@@ -31776,7 +31776,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -31797,7 +31797,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -31818,7 +31818,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -31839,7 +31839,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>408</v>
       </c>
@@ -31860,7 +31860,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -31881,7 +31881,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -31902,7 +31902,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -31923,7 +31923,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -31944,7 +31944,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>424</v>
       </c>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>414</v>
       </c>
@@ -31974,7 +31974,7 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -31982,7 +31982,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -31993,7 +31993,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -32001,7 +32001,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -32022,13 +32022,13 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.109375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>446</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>72</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -32082,7 +32082,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>431</v>
       </c>
@@ -32105,7 +32105,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -32174,7 +32174,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -32220,7 +32220,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>432</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -32289,7 +32289,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>433</v>
       </c>
@@ -32381,7 +32381,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -32427,7 +32427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -32450,7 +32450,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -32473,7 +32473,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -32496,7 +32496,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>434</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -32565,7 +32565,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -32611,7 +32611,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -32634,7 +32634,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>435</v>
       </c>
@@ -32657,7 +32657,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -32680,7 +32680,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -32703,7 +32703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -32726,7 +32726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -32772,7 +32772,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>436</v>
       </c>
@@ -32818,7 +32818,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -32864,7 +32864,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -32887,7 +32887,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>437</v>
       </c>
@@ -32910,7 +32910,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -32933,7 +32933,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -32979,7 +32979,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>424</v>
       </c>
@@ -33025,7 +33025,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>115</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -33066,13 +33066,13 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="24.109375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>453</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>72</v>
       </c>
@@ -33100,7 +33100,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -33120,7 +33120,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>431</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -33200,7 +33200,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -33220,7 +33220,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -33240,7 +33240,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>432</v>
       </c>
@@ -33260,7 +33260,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -33280,7 +33280,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -33300,7 +33300,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>433</v>
       </c>
@@ -33380,7 +33380,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -33420,7 +33420,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -33440,7 +33440,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -33460,7 +33460,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -33480,7 +33480,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>434</v>
       </c>
@@ -33500,7 +33500,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -33520,7 +33520,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -33540,7 +33540,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -33600,7 +33600,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>435</v>
       </c>
@@ -33620,7 +33620,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -33660,7 +33660,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -33680,7 +33680,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -33700,7 +33700,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -33720,7 +33720,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -33740,7 +33740,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>436</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -33780,7 +33780,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -33820,7 +33820,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>437</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -33880,7 +33880,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -33900,7 +33900,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>424</v>
       </c>
@@ -33940,7 +33940,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>115</v>
       </c>
@@ -33960,14 +33960,14 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -33977,14 +33977,14 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -34004,139 +34004,139 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="9.140625" style="5"/>
-    <col min="257" max="257" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="9.140625" style="5"/>
-    <col min="513" max="513" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="9.140625" style="5"/>
-    <col min="769" max="769" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="9.140625" style="5"/>
-    <col min="1025" max="1025" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="9.140625" style="5"/>
-    <col min="1281" max="1281" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="9.140625" style="5"/>
-    <col min="1537" max="1537" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="9.140625" style="5"/>
-    <col min="1793" max="1793" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="9.140625" style="5"/>
-    <col min="2049" max="2049" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="9.140625" style="5"/>
-    <col min="2305" max="2305" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="9.140625" style="5"/>
-    <col min="2561" max="2561" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="9.140625" style="5"/>
-    <col min="2817" max="2817" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="9.140625" style="5"/>
-    <col min="3073" max="3073" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="9.140625" style="5"/>
-    <col min="3329" max="3329" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="9.140625" style="5"/>
-    <col min="3585" max="3585" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="9.140625" style="5"/>
-    <col min="3841" max="3841" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="9.140625" style="5"/>
-    <col min="4097" max="4097" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="9.140625" style="5"/>
-    <col min="4353" max="4353" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="9.140625" style="5"/>
-    <col min="4609" max="4609" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="9.140625" style="5"/>
-    <col min="4865" max="4865" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="9.140625" style="5"/>
-    <col min="5121" max="5121" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="9.140625" style="5"/>
-    <col min="5377" max="5377" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="9.140625" style="5"/>
-    <col min="5633" max="5633" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="9.140625" style="5"/>
-    <col min="5889" max="5889" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="9.140625" style="5"/>
-    <col min="6145" max="6145" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="9.140625" style="5"/>
-    <col min="6401" max="6401" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="9.140625" style="5"/>
-    <col min="6657" max="6657" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="9.140625" style="5"/>
-    <col min="6913" max="6913" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="9.140625" style="5"/>
-    <col min="7169" max="7169" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="9.140625" style="5"/>
-    <col min="7425" max="7425" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="9.140625" style="5"/>
-    <col min="7681" max="7681" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="9.140625" style="5"/>
-    <col min="7937" max="7937" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="9.140625" style="5"/>
-    <col min="8193" max="8193" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="9.140625" style="5"/>
-    <col min="8449" max="8449" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="9.140625" style="5"/>
-    <col min="8705" max="8705" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="9.140625" style="5"/>
-    <col min="8961" max="8961" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="9.140625" style="5"/>
-    <col min="9217" max="9217" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="9.140625" style="5"/>
-    <col min="9473" max="9473" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="9.140625" style="5"/>
-    <col min="9729" max="9729" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="9.140625" style="5"/>
-    <col min="9985" max="9985" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="9.140625" style="5"/>
-    <col min="10241" max="10241" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="9.140625" style="5"/>
-    <col min="10497" max="10497" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="9.140625" style="5"/>
-    <col min="10753" max="10753" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="9.140625" style="5"/>
-    <col min="11009" max="11009" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="9.140625" style="5"/>
-    <col min="11265" max="11265" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="9.140625" style="5"/>
-    <col min="11521" max="11521" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="9.140625" style="5"/>
-    <col min="11777" max="11777" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="9.140625" style="5"/>
-    <col min="12033" max="12033" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="9.140625" style="5"/>
-    <col min="12289" max="12289" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="9.140625" style="5"/>
-    <col min="12545" max="12545" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="9.140625" style="5"/>
-    <col min="12801" max="12801" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="9.140625" style="5"/>
-    <col min="13057" max="13057" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="9.140625" style="5"/>
-    <col min="13313" max="13313" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="9.140625" style="5"/>
-    <col min="13569" max="13569" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="9.140625" style="5"/>
-    <col min="13825" max="13825" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="9.140625" style="5"/>
-    <col min="14081" max="14081" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="9.140625" style="5"/>
-    <col min="14337" max="14337" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="9.140625" style="5"/>
-    <col min="14593" max="14593" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="9.140625" style="5"/>
-    <col min="14849" max="14849" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="9.140625" style="5"/>
-    <col min="15105" max="15105" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="9.140625" style="5"/>
-    <col min="15361" max="15361" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="9.140625" style="5"/>
-    <col min="15617" max="15617" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="9.140625" style="5"/>
-    <col min="15873" max="15873" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="9.140625" style="5"/>
-    <col min="16129" max="16129" width="41.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="9.109375" style="5"/>
+    <col min="257" max="257" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="9.109375" style="5"/>
+    <col min="513" max="513" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="9.109375" style="5"/>
+    <col min="769" max="769" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="9.109375" style="5"/>
+    <col min="1025" max="1025" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="9.109375" style="5"/>
+    <col min="1281" max="1281" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="9.109375" style="5"/>
+    <col min="1537" max="1537" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="9.109375" style="5"/>
+    <col min="1793" max="1793" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="9.109375" style="5"/>
+    <col min="2049" max="2049" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="9.109375" style="5"/>
+    <col min="2305" max="2305" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="9.109375" style="5"/>
+    <col min="2561" max="2561" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="9.109375" style="5"/>
+    <col min="2817" max="2817" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="9.109375" style="5"/>
+    <col min="3073" max="3073" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="9.109375" style="5"/>
+    <col min="3329" max="3329" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="9.109375" style="5"/>
+    <col min="3585" max="3585" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="9.109375" style="5"/>
+    <col min="3841" max="3841" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="9.109375" style="5"/>
+    <col min="4097" max="4097" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="9.109375" style="5"/>
+    <col min="4353" max="4353" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="9.109375" style="5"/>
+    <col min="4609" max="4609" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="9.109375" style="5"/>
+    <col min="4865" max="4865" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="9.109375" style="5"/>
+    <col min="5121" max="5121" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="9.109375" style="5"/>
+    <col min="5377" max="5377" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="9.109375" style="5"/>
+    <col min="5633" max="5633" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="9.109375" style="5"/>
+    <col min="5889" max="5889" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="9.109375" style="5"/>
+    <col min="6145" max="6145" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="9.109375" style="5"/>
+    <col min="6401" max="6401" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="9.109375" style="5"/>
+    <col min="6657" max="6657" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="9.109375" style="5"/>
+    <col min="6913" max="6913" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="9.109375" style="5"/>
+    <col min="7169" max="7169" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="9.109375" style="5"/>
+    <col min="7425" max="7425" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="9.109375" style="5"/>
+    <col min="7681" max="7681" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="9.109375" style="5"/>
+    <col min="7937" max="7937" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="9.109375" style="5"/>
+    <col min="8193" max="8193" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="9.109375" style="5"/>
+    <col min="8449" max="8449" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="9.109375" style="5"/>
+    <col min="8705" max="8705" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="9.109375" style="5"/>
+    <col min="8961" max="8961" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="9.109375" style="5"/>
+    <col min="9217" max="9217" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="9.109375" style="5"/>
+    <col min="9473" max="9473" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="9.109375" style="5"/>
+    <col min="9729" max="9729" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="9.109375" style="5"/>
+    <col min="9985" max="9985" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="9.109375" style="5"/>
+    <col min="10241" max="10241" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="9.109375" style="5"/>
+    <col min="10497" max="10497" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="9.109375" style="5"/>
+    <col min="10753" max="10753" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="9.109375" style="5"/>
+    <col min="11009" max="11009" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="9.109375" style="5"/>
+    <col min="11265" max="11265" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="9.109375" style="5"/>
+    <col min="11521" max="11521" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="9.109375" style="5"/>
+    <col min="11777" max="11777" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="9.109375" style="5"/>
+    <col min="12033" max="12033" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="9.109375" style="5"/>
+    <col min="12289" max="12289" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="9.109375" style="5"/>
+    <col min="12545" max="12545" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="9.109375" style="5"/>
+    <col min="12801" max="12801" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="9.109375" style="5"/>
+    <col min="13057" max="13057" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="9.109375" style="5"/>
+    <col min="13313" max="13313" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="9.109375" style="5"/>
+    <col min="13569" max="13569" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="9.109375" style="5"/>
+    <col min="13825" max="13825" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="9.109375" style="5"/>
+    <col min="14081" max="14081" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="9.109375" style="5"/>
+    <col min="14337" max="14337" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="9.109375" style="5"/>
+    <col min="14593" max="14593" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="9.109375" style="5"/>
+    <col min="14849" max="14849" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="9.109375" style="5"/>
+    <col min="15105" max="15105" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="9.109375" style="5"/>
+    <col min="15361" max="15361" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="9.109375" style="5"/>
+    <col min="15617" max="15617" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="9.109375" style="5"/>
+    <col min="15873" max="15873" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="9.109375" style="5"/>
+    <col min="16129" max="16129" width="41.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>461</v>
       </c>
@@ -34147,7 +34147,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>72</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>11.700000000000017</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>374</v>
       </c>
@@ -34225,7 +34225,7 @@
         <v>8.5699999999999932</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>375</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>8.5799999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>376</v>
       </c>
@@ -34277,7 +34277,7 @@
         <v>6.8599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>377</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>9.0699999999999932</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>378</v>
       </c>
@@ -34329,7 +34329,7 @@
         <v>8.8699999999999903</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>379</v>
       </c>
@@ -34355,7 +34355,7 @@
         <v>9.4099999999999966</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>380</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>13.050000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>381</v>
       </c>
@@ -34407,7 +34407,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>382</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>10.579999999999984</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>383</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>384</v>
       </c>
@@ -34485,7 +34485,7 @@
         <v>14.299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>385</v>
       </c>
@@ -34511,7 +34511,7 @@
         <v>14.38000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>386</v>
       </c>
@@ -34537,7 +34537,7 @@
         <v>10.230000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>387</v>
       </c>
@@ -34563,7 +34563,7 @@
         <v>9.9700000000000131</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>388</v>
       </c>
@@ -34589,7 +34589,7 @@
         <v>10.239999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>389</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>13.459999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>390</v>
       </c>
@@ -34641,7 +34641,7 @@
         <v>9.7099999999999937</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>91</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>9.710000000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>391</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>392</v>
       </c>
@@ -34719,7 +34719,7 @@
         <v>12.739999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>393</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>11.789999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>394</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>12.530000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>395</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>396</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>11.980000000000018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>397</v>
       </c>
@@ -34849,7 +34849,7 @@
         <v>14.919999999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>398</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>15.379999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>399</v>
       </c>
@@ -34901,7 +34901,7 @@
         <v>16.340000000000018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>400</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>14.469999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>401</v>
       </c>
@@ -34953,7 +34953,7 @@
         <v>14.760000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>402</v>
       </c>
@@ -34979,7 +34979,7 @@
         <v>15.019999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>403</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>15.490000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>404</v>
       </c>
@@ -35031,7 +35031,7 @@
         <v>10.700000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>405</v>
       </c>
@@ -35057,7 +35057,7 @@
         <v>7.6999999999999886</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>406</v>
       </c>
@@ -35083,7 +35083,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>407</v>
       </c>
@@ -35109,7 +35109,7 @@
         <v>11.950000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>408</v>
       </c>
@@ -35135,7 +35135,7 @@
         <v>12.730000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>409</v>
       </c>
@@ -35161,7 +35161,7 @@
         <v>11.530000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>410</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>4.2109999999999843</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>411</v>
       </c>
@@ -35213,7 +35213,7 @@
         <v>13.469999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>412</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>12.690000000000012</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>413</v>
       </c>
@@ -35265,7 +35265,7 @@
         <v>12.780000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>460</v>
       </c>
@@ -35291,7 +35291,7 @@
         <v>12.780000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -35300,7 +35300,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
